--- a/Lab1/Content/Reports/report.xlsx
+++ b/Lab1/Content/Reports/report.xlsx
@@ -1399,8 +1399,12 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44350</v>
+      </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5">
